--- a/biology/Médecine/Dyspnée/Dyspnée.xlsx
+++ b/biology/Médecine/Dyspnée/Dyspnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e</t>
+          <t>Dyspnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dyspnée[1] est une gêne respiratoire ressentie par le patient.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyspnée est une gêne respiratoire ressentie par le patient.
 Elle doit être distinguée d'une détresse respiratoire ou d'une insuffisance respiratoire dont elle n'est pas forcément synonyme.
 On distingue plusieurs types de dyspnées avec 3 caractéristiques principales : 
 la difficulté à inspirer de l'air (ou faire entrer de l'air dans ses poumons), ou dyspnée inspiratoire ;
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e</t>
+          <t>Dyspnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Signes cliniques aperçus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une respiration trop lente (bradypnée) ou trop rapide (tachypnée).
 Des signes de lutte respiratoire, non obligatoire, et plutôt évocateur d'une détresse respiratoire que d'une dyspnée simple, par mise en œuvre des muscles respiratoires accessoires non utilisés habituellement :
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dyspn%C3%A9e</t>
+          <t>Dyspnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,64 +569,276 @@
           <t>Différents types de dyspnée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'analyse des différents types de dyspnée dépend de l'allongement du temps respiratoire impliqué.
-Dyspnée expiratoire
-On observe un allongement de la durée de l'expiration (normalement d'une durée du double de l'inspiration).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Différents types de dyspnée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dyspnée expiratoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On observe un allongement de la durée de l'expiration (normalement d'une durée du double de l'inspiration).
 Elle est le signe d'une atteinte plutôt des voies aériennes basses ou des poumons.
-L'asthme ou la bronchopneumopathie chronique obstructive (BPCO) provoque typiquement une dyspnée expiratoire avec frein expiratoire, sibilants et respiration à lèvre pincée.
-Dyspnée inspiratoire
-Le cornage (à ne pas confondre avec le stridor) est le signe de la dyspnée inspiratoire, bruit caractéristique produit à l'inspiration ressemblant à un souffle dans une corne 
+L'asthme ou la bronchopneumopathie chronique obstructive (BPCO) provoque typiquement une dyspnée expiratoire avec frein expiratoire, sibilants et respiration à lèvre pincée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différents types de dyspnée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dyspnée inspiratoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le cornage (à ne pas confondre avec le stridor) est le signe de la dyspnée inspiratoire, bruit caractéristique produit à l'inspiration ressemblant à un souffle dans une corne 
 Il traduit une obstruction des voies aériennes hautes (larynx). 
 Il peut être accompagné de signe de lutte.
 La dyspnée inspiratoire se rencontre :
 en présence de corps étrangers dans les voies respiratoires supérieurs (inhalation de corps étranger) ;
 lors des infections laryngées telles que laryngites aiguës ou l'épiglottite ;
-lors des néoplasies ORL notamment laryngées.
-Dyspnée aux 2 temps
-Elle représente une gêne à l'inspiration et l'expiration, et traduit une obstruction au niveau de la trachée.
+lors des néoplasies ORL notamment laryngées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Différents types de dyspnée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dyspnée aux 2 temps</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle représente une gêne à l'inspiration et l'expiration, et traduit une obstruction au niveau de la trachée.
 On la retrouve dans l'inhalation de corps étrangers bloqués au niveau trachéal ou lors de compressions de la trachée (intrinsèque par néoplasie ORL ou extrinsèque par compression externe par l'œsophage).
-Dyspnée de Kussmaul
-La dyspnée de Kussmaul est un type de dyspnée particulière rencontrée lors des problèmes métaboliques, notamment l'acido-cétose diabétique.
-Elle présente une respiration d'amplitude grandissante jusqu'à une pause respiratoire plus ou moins prolongée, puis la reprise successive de phases identiques[2].
-Dyspnée de Cheyne-Stokes
-Respiration cyclique, avec mouvements respiratoires dont l'amplitude et la fréquence augmentent progressivement, puis décroissent jusqu'à une pause respiratoire. Observée classiquement au cours de l'acidose urémique et certains comas neurologiques[2],[3].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Différents types de dyspnée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dyspnée de Kussmaul</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyspnée de Kussmaul est un type de dyspnée particulière rencontrée lors des problèmes métaboliques, notamment l'acido-cétose diabétique.
+Elle présente une respiration d'amplitude grandissante jusqu'à une pause respiratoire plus ou moins prolongée, puis la reprise successive de phases identiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Différents types de dyspnée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dyspnée de Cheyne-Stokes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Respiration cyclique, avec mouvements respiratoires dont l'amplitude et la fréquence augmentent progressivement, puis décroissent jusqu'à une pause respiratoire. Observée classiquement au cours de l'acidose urémique et certains comas neurologiques,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les circonstances d'apparition de la dyspnée permettent une orientation diagnostique. Soit elle s'installe très rapidement (c'est une dyspnée aiguë), soit elle existe depuis longtemps (c'est une dyspnée chronique).
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les circonstances d'apparition de la dyspnée permettent une orientation diagnostique. Soit elle s'installe très rapidement (c'est une dyspnée aiguë), soit elle existe depuis longtemps (c'est une dyspnée chronique).
 Toute pathologie de l'appareil respiratoire ou cardiaque peut donner une sensation de dyspnée, mais également les problèmes métaboliques (acidose métabolique), neurologique (par atteinte des centres commandant la respiration), l'anémie (par diminution de l'apport d'oxygène aux cellules par diminution du nombre de globules rouges transportant cet oxygène.
 Les causes psychogènes de dyspnée restent un diagnostic d'élimination après avoir éliminé les autres causes.
-Dyspnée aiguë
-Embolie pulmonaire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dyspnée aiguë</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Embolie pulmonaire
 Œdème aigu du poumon (OAP)
 Pneumothorax
 exacerbation d'asthme
@@ -620,13 +846,88 @@
 Corps étranger
 Laryngite
 Traumatisme thoracique
-Bronchite aiguë
-Dyspnée chronique
-Maladies cardiaques
-L'essoufflement est un symptôme fréquent chez de nombreuses personnes atteintes d'insuffisance cardiaque.
-Péricardite
-Maladies respiratoires
-Pneumonie
+Bronchite aiguë</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dyspnée chronique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Maladies cardiaques</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'essoufflement est un symptôme fréquent chez de nombreuses personnes atteintes d'insuffisance cardiaque.
+Péricardite</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dyspnée chronique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Maladies respiratoires</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pneumonie
 Covid19
 Mucoviscidose
 Bronchite chronique
@@ -636,10 +937,47 @@
 Asthme
 Dilatation des bronches
 Broncho-pneumopathie chronique obstructive
-Sténose trachéale
-Anémie
-Divers
-Hyperthyroïdie
+Sténose trachéale</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dyspnée chronique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hyperthyroïdie
 troubles de la cage thoracique, par exemple cyphose, lésions d'une côte,
 troubles des organes adjacents (pouvant rendre douloureux le mouvement respiratoire),
 troubles du système nerveux (accident vasculaire cérébral)
@@ -651,71 +989,144 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise en charge de la dyspnée dépend principalement de sa cause.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Mesure de la dyspnée[4]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Il existe deux façons reconnues d'évaluer la dyspnée : l'échelle de la New York Heart Association [5](utilisée pour le suivi de la dyspnée de l'insuffisance cardiaque), et celle du British Medical Council.
-Échelle de la NYHA
-NYHA 1 = Asymptomatique
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux façons reconnues d'évaluer la dyspnée : l'échelle de la New York Heart Association (utilisée pour le suivi de la dyspnée de l'insuffisance cardiaque), et celle du British Medical Council.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mesure de la dyspnée[4]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Échelle de la NYHA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NYHA 1 = Asymptomatique
 NYHA 2 = Limitation minime de la capacité d'effort : un effort inhabituel provoque la dyspnée.
 NYHA 3 = Limitation évidente de la capacité d'effort : la dyspnée est provoquée au moindre effort.
-NYHA 4 = Le patient est dyspnéique au repos.
-Échelle du BMC
-BMC 1 = Le patient est essoufflé à l'effort intense.
+NYHA 4 = Le patient est dyspnéique au repos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mesure de la dyspnée[4]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Échelle du BMC</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>BMC 1 = Le patient est essoufflé à l'effort intense.
 BMC 2 = Il est essoufflé lorsqu'il marche vite ou sur une pente légère.
 BMC 3 = Il marche plus lentement que les individus de son âge ou arrête pour reprendre son souffle lorsqu'il marche sur une surface plane.
 BMC 4 = Il arrête pour reprendre son souffle après avoir marché 100 m.
@@ -723,31 +1134,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dyspnée</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyspn%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Autres dysfonctionnements de la respiration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>polypnée, respiration trop rapide (fréquence respiratoire supérieure à 15-20 par minute), avec un volume courant inférieur à la normale (500 mL)
 tachypnée : respiration trop rapide, mais avec un volume courant normal.
